--- a/outdata/io2014.xlsx
+++ b/outdata/io2014.xlsx
@@ -84080,4 +84080,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B69EA72-CEEE-4960-941D-130C4FADFC67}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6683B146-D04D-4393-84A8-EE7B36764FEE}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28FB2021-C230-48EE-8D74-8216DCFF5F2D}"/>
 </file>
--- a/outdata/io2014.xlsx
+++ b/outdata/io2014.xlsx
@@ -84263,13 +84263,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B69EA72-CEEE-4960-941D-130C4FADFC67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44625FD-0800-4CF6-A108-CAB4D63807A4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6683B146-D04D-4393-84A8-EE7B36764FEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7462E48-CDFA-4991-AD8B-4125D1EEDF05}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28FB2021-C230-48EE-8D74-8216DCFF5F2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674409C-208E-495B-B87B-0122B679B618}"/>
 </file>
--- a/outdata/io2014.xlsx
+++ b/outdata/io2014.xlsx
@@ -32,228 +32,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="45">
   <si>
-    <t>I_01</t>
+    <t>01 Maatalous ja metsästys</t>
   </si>
   <si>
-    <t>I_02_03</t>
+    <t>02_03 Metsätalous ja kalatalous</t>
   </si>
   <si>
-    <t>I_05_09</t>
+    <t>05_09 Kaivostoiminta ja louhinta</t>
   </si>
   <si>
-    <t>I_10_12</t>
+    <t>10_12 Elintarviketeollisuus ym.</t>
   </si>
   <si>
-    <t>I_13_15</t>
+    <t>13_15 Tekstiili-, vaatetus- ja nahkateollisuus</t>
   </si>
   <si>
-    <t>I_16</t>
+    <t>16 Puuteollisuus</t>
   </si>
   <si>
-    <t>I_17_18</t>
+    <t>17_18 Paperiteollisuus ja painaminen</t>
   </si>
   <si>
-    <t>I_19_22</t>
+    <t>19_22 Kemianteollisuus</t>
   </si>
   <si>
-    <t>I_23</t>
+    <t>23 Rakennusaineteollisuus</t>
   </si>
   <si>
-    <t>I_24_25</t>
+    <t>24_25 Metallien jalostus ja metallituotteiden valmistus (pl. koneet ja laitteet)</t>
   </si>
   <si>
-    <t>I_26_27</t>
+    <t>26_27 Sähkö- ja elektroniikkateollisuus</t>
   </si>
   <si>
-    <t>I_28</t>
+    <t>28 Muiden koneiden ja laitteiden valmistus</t>
   </si>
   <si>
-    <t>I_29_30</t>
+    <t>29_30 Kulkuneuvojen valmistus</t>
   </si>
   <si>
-    <t>I_31_33</t>
+    <t>31_33 Huonekalujen valmistus: Muu teollinen valmistus: Koneiden ja laitteiden korjaus, huolto ja ase</t>
   </si>
   <si>
-    <t>I_35_39</t>
+    <t>35_39 Energiahuolto: Vesi- ja jätehuolto</t>
   </si>
   <si>
-    <t>I_41_43</t>
+    <t>41_43 Rakentaminen</t>
   </si>
   <si>
-    <t>I_45_47</t>
+    <t>45_47 Tukku- ja vähittäiskauppa, moottoriajoneuvojen ja moottoripyörien korjaus</t>
   </si>
   <si>
-    <t>I_49_53</t>
+    <t>49_53 Kuljetus ja varastointi</t>
   </si>
   <si>
-    <t>I_55_56</t>
+    <t>55_56 Majoitus- ja ravitsemistoiminta</t>
   </si>
   <si>
-    <t>I_58_63</t>
+    <t>58_63 Kustannustoiminta: Audiovisuaalinen toiminta: Televiestintä: Tietojenkäsittelypalvelu</t>
   </si>
   <si>
-    <t>I_64_66</t>
+    <t>64_66 Rahoitus- ja vakuutustoiminta</t>
   </si>
   <si>
-    <t>I_68</t>
+    <t>681+68209+683 Muu kiinteistötoiminta</t>
   </si>
   <si>
-    <t>I_68A</t>
+    <t>68201_68202 Asuntojen vuokraus ja hallinta</t>
   </si>
   <si>
-    <t>I_69_75</t>
+    <t>69_75 Ammatillinen, tieteellinen ja tekninen toiminta</t>
   </si>
   <si>
-    <t>I_77_82</t>
+    <t>77_82 Hallinto- ja tukipalvelutoiminta</t>
   </si>
   <si>
-    <t>I_84</t>
+    <t>84 Julkinen hallinto ja sosiaalivakuutus</t>
   </si>
   <si>
-    <t>I_85</t>
+    <t>85 Koulutus</t>
   </si>
   <si>
-    <t>I_86_88</t>
+    <t>86_88 Terveys- ja sosiaalipalvelut</t>
   </si>
   <si>
-    <t>I_90_96</t>
+    <t>90_96 Taiteet, viihde ja virkistys: Muu palvelutoiminta</t>
   </si>
   <si>
-    <t>I_97_98</t>
+    <t>97_98 Kotitalouspalvelut</t>
   </si>
   <si>
-    <t>Hou</t>
+    <t>P3/S14 Kotitalouksien kulutusmenot</t>
   </si>
   <si>
-    <t>Inv</t>
+    <t>P5 Pääoman bruttomuodostus</t>
   </si>
   <si>
-    <t>Gov</t>
+    <t>P3/S13 Julkisyhteisöjen kulutusmenot</t>
   </si>
   <si>
-    <t>Exp</t>
+    <t>P6K Tavaroiden ja palvelujen vienti</t>
   </si>
   <si>
-    <t>Exports regional</t>
+    <t>Tavaroiden ja palvelujen vienti kotimaahan</t>
   </si>
   <si>
-    <t>Inventories</t>
+    <t>P52 Varastojen muutos</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>USE_PH Käyttö yhteensä perushintaan</t>
   </si>
   <si>
-    <t>C_01</t>
+    <t>Kotimaisten tuontituotteiden käyttö yhteensä</t>
   </si>
   <si>
-    <t>C_02_03</t>
+    <t>Ulkomaisten tuontituotteiden käyttö yhteensä</t>
   </si>
   <si>
-    <t>C_05_09</t>
+    <t>Tuoteverot miinus tuotetukipalkkio</t>
   </si>
   <si>
-    <t>C_10_12</t>
+    <t>Palkansaajakorvaukset</t>
   </si>
   <si>
-    <t>C_13_15</t>
+    <t>Pääomakorvaukset</t>
   </si>
   <si>
-    <t>C_16</t>
+    <t>Maankäytön korvaukset</t>
   </si>
   <si>
-    <t>C_17_18</t>
+    <t>Muut tuotantoverot, netto</t>
   </si>
   <si>
-    <t>C_19_22</t>
-  </si>
-  <si>
-    <t>C_23</t>
-  </si>
-  <si>
-    <t>C_24_25</t>
-  </si>
-  <si>
-    <t>C_26_27</t>
-  </si>
-  <si>
-    <t>C_28</t>
-  </si>
-  <si>
-    <t>C_29_30</t>
-  </si>
-  <si>
-    <t>C_31_33</t>
-  </si>
-  <si>
-    <t>C_35_39</t>
-  </si>
-  <si>
-    <t>C_41_43</t>
-  </si>
-  <si>
-    <t>C_45_47</t>
-  </si>
-  <si>
-    <t>C_49_53</t>
-  </si>
-  <si>
-    <t>C_55_56</t>
-  </si>
-  <si>
-    <t>C_58_63</t>
-  </si>
-  <si>
-    <t>C_64_66</t>
-  </si>
-  <si>
-    <t>C_68</t>
-  </si>
-  <si>
-    <t>C_68A</t>
-  </si>
-  <si>
-    <t>C_69_75</t>
-  </si>
-  <si>
-    <t>C_77_82</t>
-  </si>
-  <si>
-    <t>C_84</t>
-  </si>
-  <si>
-    <t>C_85</t>
-  </si>
-  <si>
-    <t>C_86_88</t>
-  </si>
-  <si>
-    <t>C_90_96</t>
-  </si>
-  <si>
-    <t>C_97_98</t>
-  </si>
-  <si>
-    <t>Domestic_import</t>
-  </si>
-  <si>
-    <t>External_import</t>
-  </si>
-  <si>
-    <t>TAXES</t>
-  </si>
-  <si>
-    <t>V1LAB</t>
-  </si>
-  <si>
-    <t>V1CAP</t>
-  </si>
-  <si>
-    <t>V1LND</t>
-  </si>
-  <si>
-    <t>V1PTX</t>
+    <t>Tuotos perushintaan</t>
   </si>
 </sst>
 </file>
@@ -741,7 +654,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.811674356460571</v>
@@ -857,7 +770,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.104952372610569</v>
@@ -973,7 +886,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.007960297167301178</v>
@@ -1089,7 +1002,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.65665721893311</v>
@@ -1205,7 +1118,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0138712003827095</v>
@@ -1321,7 +1234,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.01136832591146231</v>
@@ -1437,7 +1350,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.4088468849658966</v>
@@ -1553,7 +1466,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>18.12676239013672</v>
@@ -1669,7 +1582,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1719091534614563</v>
@@ -1785,7 +1698,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.388711541891098</v>
@@ -1901,7 +1814,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2.542603969573975</v>
@@ -2017,7 +1930,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.372396945953369</v>
@@ -2133,7 +2046,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.009161272086203098</v>
@@ -2249,7 +2162,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.176561832427979</v>
@@ -2365,7 +2278,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4.944953441619873</v>
@@ -2481,7 +2394,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.611252784729</v>
@@ -2597,7 +2510,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>24.79493713378906</v>
@@ -2713,7 +2626,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.832361936569214</v>
@@ -2829,7 +2742,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.2015897631645203</v>
@@ -2945,7 +2858,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1.628337383270264</v>
@@ -3061,7 +2974,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3.330315828323364</v>
@@ -3177,7 +3090,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.08550978451967239</v>
@@ -3293,7 +3206,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0005775021272711456</v>
@@ -3409,7 +3322,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.869311690330505</v>
@@ -3525,7 +3438,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.35105228424072</v>
@@ -3641,7 +3554,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.5849398374557495</v>
@@ -3757,7 +3670,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1336239874362946</v>
@@ -3873,7 +3786,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.003880071453750134</v>
@@ -3989,7 +3902,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.4911399185657501</v>
@@ -4105,7 +4018,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -4221,7 +4134,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>27.81626319885254</v>
@@ -4319,7 +4232,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>30.10653686523438</v>
@@ -4417,7 +4330,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>4.172850608825684</v>
@@ -4515,7 +4428,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>30.3388614654541</v>
@@ -4613,7 +4526,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>106.106575012207</v>
@@ -4711,7 +4624,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>18.72469139099121</v>
@@ -4809,7 +4722,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-84.76014709472656</v>
@@ -4907,7 +4820,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>237.1728515625</v>
@@ -5134,7 +5047,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>26.09056091308594</v>
@@ -5250,7 +5163,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.5234336256980896</v>
@@ -5366,7 +5279,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.05299520492553711</v>
@@ -5482,7 +5395,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>20.54468727111816</v>
@@ -5598,7 +5511,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1254922747612</v>
@@ -5714,7 +5627,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3778210282325745</v>
@@ -5830,7 +5743,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.9681453108787537</v>
@@ -5946,7 +5859,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.81235408782959</v>
@@ -6062,7 +5975,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.2726359367370605</v>
@@ -6178,7 +6091,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.8481497764587402</v>
@@ -6294,7 +6207,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.4905800521373749</v>
@@ -6410,7 +6323,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>3.211556911468506</v>
@@ -6526,7 +6439,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.04030987620353699</v>
@@ -6642,7 +6555,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>2.177004814147949</v>
@@ -6758,7 +6671,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5.643180847167969</v>
@@ -6874,7 +6787,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>18.44844436645508</v>
@@ -6990,7 +6903,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>18.30465126037598</v>
@@ -7106,7 +7019,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.588429570198059</v>
@@ -7222,7 +7135,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.2098549455404282</v>
@@ -7338,7 +7251,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.5981549620628357</v>
@@ -7454,7 +7367,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.339723825454712</v>
@@ -7570,7 +7483,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.1219802051782608</v>
@@ -7686,7 +7599,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.001167628448456526</v>
@@ -7802,7 +7715,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.840993762016296</v>
@@ -7918,7 +7831,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.67806434631348</v>
@@ -8034,7 +7947,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.7434867024421692</v>
@@ -8150,7 +8063,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.3048894703388214</v>
@@ -8266,7 +8179,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.01040642894804478</v>
@@ -8382,7 +8295,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.3921683430671692</v>
@@ -8498,7 +8411,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -8614,7 +8527,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>61.82132720947266</v>
@@ -8712,7 +8625,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>43.10558319091797</v>
@@ -8810,7 +8723,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>6.080642223358154</v>
@@ -8908,7 +8821,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>44.20952987670898</v>
@@ -9006,7 +8919,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>154.6175842285156</v>
@@ -9104,7 +9017,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>27.28545761108398</v>
@@ -9202,7 +9115,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-123.5117416381836</v>
@@ -9300,7 +9213,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>345.3697204589844</v>
@@ -9527,7 +9440,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.48049926757812</v>
@@ -9643,7 +9556,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2661760449409485</v>
@@ -9759,7 +9672,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.02872001007199287</v>
@@ -9875,7 +9788,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.87772369384766</v>
@@ -9991,7 +9904,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.02581486105918884</v>
@@ -10107,7 +10020,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.207685187458992</v>
@@ -10223,7 +10136,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.6990904211997986</v>
@@ -10339,7 +10252,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3.787943124771118</v>
@@ -10455,7 +10368,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1666520684957504</v>
@@ -10571,7 +10484,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.461622029542923</v>
@@ -10687,7 +10600,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.4029751121997833</v>
@@ -10803,7 +10716,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.67926037311554</v>
@@ -10919,7 +10832,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.00480839516967535</v>
@@ -11035,7 +10948,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.9622363448143005</v>
@@ -11151,7 +11064,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>3.803771257400513</v>
@@ -11267,7 +11180,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>9.265564918518066</v>
@@ -11383,7 +11296,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>6.814330101013184</v>
@@ -11499,7 +11412,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.5535301566123962</v>
@@ -11615,7 +11528,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.08178773522377014</v>
@@ -11731,7 +11644,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2966089248657227</v>
@@ -11847,7 +11760,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.6641846299171448</v>
@@ -11963,7 +11876,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.06086088344454765</v>
@@ -12079,7 +11992,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0006175564485602081</v>
@@ -12195,7 +12108,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.5890975594520569</v>
@@ -12311,7 +12224,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.160133838653564</v>
@@ -12427,7 +12340,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.3232889175415039</v>
@@ -12543,7 +12456,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1555306315422058</v>
@@ -12659,7 +12572,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.005254543386399746</v>
@@ -12775,7 +12688,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.2004113793373108</v>
@@ -12891,7 +12804,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -13007,7 +12920,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>38.71001815795898</v>
@@ -13105,7 +13018,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>21.80669784545898</v>
@@ -13203,7 +13116,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>3.071119546890259</v>
@@ -13301,7 +13214,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>22.32868194580078</v>
@@ -13399,7 +13312,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>78.09194183349609</v>
@@ -13497,7 +13410,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>13.78093242645264</v>
@@ -13595,7 +13508,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-62.3814697265625</v>
@@ -13693,7 +13606,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>174.4340972900391</v>
@@ -13920,7 +13833,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.916145324707031</v>
@@ -14036,7 +13949,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2239639759063721</v>
@@ -14152,7 +14065,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01757687702775002</v>
@@ -14268,7 +14181,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.925854682922363</v>
@@ -14384,7 +14297,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.008366116322577</v>
@@ -14500,7 +14413,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1260527223348618</v>
@@ -14616,7 +14529,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.124547600746155</v>
@@ -14732,7 +14645,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2.87413477897644</v>
@@ -14848,7 +14761,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.09368995577096939</v>
@@ -14964,7 +14877,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3130092918872833</v>
@@ -15080,7 +14993,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.4147654175758362</v>
@@ -15196,7 +15109,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.881259560585022</v>
@@ -15312,7 +15225,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.03619092702865601</v>
@@ -15428,7 +15341,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.9647605419158936</v>
@@ -15544,7 +15457,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>3.2099449634552</v>
@@ -15660,7 +15573,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>8.852146148681641</v>
@@ -15776,7 +15689,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>6.81285285949707</v>
@@ -15892,7 +15805,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.5508269071578979</v>
@@ -16008,7 +15921,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1009728461503983</v>
@@ -16124,7 +16037,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.4581041634082794</v>
@@ -16240,7 +16153,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.5257752537727356</v>
@@ -16356,7 +16269,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.05295930057764053</v>
@@ -16472,7 +16385,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0005292591522447765</v>
@@ -16588,7 +16501,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.824038565158844</v>
@@ -16704,7 +16617,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>5.563799381256104</v>
@@ -16820,7 +16733,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.3021418154239655</v>
@@ -16936,7 +16849,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1421599984169006</v>
@@ -17052,7 +16965,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.004490676335990429</v>
@@ -17168,7 +17081,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1969288140535355</v>
@@ -17284,7 +17197,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -17400,7 +17313,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>34.95492553710938</v>
@@ -17498,7 +17411,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>18.94017601013184</v>
@@ -17596,7 +17509,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>2.65401029586792</v>
@@ -17694,7 +17607,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>19.29609489440918</v>
@@ -17792,7 +17705,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>67.48576354980469</v>
@@ -17890,7 +17803,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>11.90925312042236</v>
@@ -17988,7 +17901,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-53.90903472900391</v>
@@ -18086,7 +17999,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>150.8491821289062</v>
@@ -18313,7 +18226,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>51.8188591003418</v>
@@ -18429,7 +18342,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.8737693428993225</v>
@@ -18545,7 +18458,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.08328309655189514</v>
@@ -18661,7 +18574,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>46.70947647094727</v>
@@ -18777,7 +18690,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1669053435325623</v>
@@ -18893,7 +18806,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.4302645027637482</v>
@@ -19009,7 +18922,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.1157795488834381</v>
@@ -19125,7 +19038,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3.272478103637695</v>
@@ -19241,7 +19154,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3027479648590088</v>
@@ -19357,7 +19270,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>3.185012817382812</v>
@@ -19473,7 +19386,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.591331958770752</v>
@@ -19589,7 +19502,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>3.93164324760437</v>
@@ -19705,7 +19618,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.2342211157083511</v>
@@ -19821,7 +19734,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4.902214050292969</v>
@@ -19937,7 +19850,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>9.353428840637207</v>
@@ -20053,7 +19966,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>32.15815353393555</v>
@@ -20169,7 +20082,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>25.30930519104004</v>
@@ -20285,7 +20198,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>3.458506345748901</v>
@@ -20401,7 +20314,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.2868987023830414</v>
@@ -20517,7 +20430,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.5070603489875793</v>
@@ -20633,7 +20546,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.718343496322632</v>
@@ -20749,7 +20662,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.216770738363266</v>
@@ -20865,7 +20778,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.002104003680869937</v>
@@ -20981,7 +20894,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.961264371871948</v>
@@ -21097,7 +21010,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.46181964874268</v>
@@ -21213,7 +21126,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>1.057289838790894</v>
@@ -21329,7 +21242,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.4352436661720276</v>
@@ -21445,7 +21358,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.01841721124947071</v>
@@ -21561,7 +21474,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.6380488276481628</v>
@@ -21677,7 +21590,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -21793,7 +21706,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>140.0767669677734</v>
@@ -21891,7 +21804,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>77.50791931152344</v>
@@ -21989,7 +21902,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>10.93811416625977</v>
@@ -22087,7 +22000,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>79.52595520019531</v>
@@ -22185,7 +22098,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>278.1326293945312</v>
@@ -22283,7 +22196,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>49.08223342895508</v>
@@ -22381,7 +22294,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-222.1781463623047</v>
@@ -22479,7 +22392,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>621.2861328125</v>
@@ -22706,7 +22619,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>41.33316421508789</v>
@@ -22822,7 +22735,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.5211004018783569</v>
@@ -22938,7 +22851,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01375554502010345</v>
@@ -23054,7 +22967,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>29.37361717224121</v>
@@ -23170,7 +23083,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.02817152068018913</v>
@@ -23286,7 +23199,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1186190322041512</v>
@@ -23402,7 +23315,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>2.032554388046265</v>
@@ -23518,7 +23431,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.844423294067383</v>
@@ -23634,7 +23547,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.5769275426864624</v>
@@ -23750,7 +23663,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.070392370223999</v>
@@ -23866,7 +23779,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>6.660861968994141</v>
@@ -23982,7 +23895,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>8.802591323852539</v>
@@ -24098,7 +24011,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.139311358332634</v>
@@ -24214,7 +24127,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>3.105581045150757</v>
@@ -24330,7 +24243,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>10.73761940002441</v>
@@ -24446,7 +24359,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>24.5674991607666</v>
@@ -24562,7 +24475,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.10202598571777</v>
@@ -24678,7 +24591,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.669420838356018</v>
@@ -24794,7 +24707,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.2583131790161133</v>
@@ -24910,7 +24823,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.7895451784133911</v>
@@ -25026,7 +24939,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>2.412634134292603</v>
@@ -25142,7 +25055,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.1704346984624863</v>
@@ -25258,7 +25171,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.001641163835301995</v>
@@ -25374,7 +25287,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.448834776878357</v>
@@ -25490,7 +25403,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.79974269866943</v>
@@ -25606,7 +25519,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.6893520951271057</v>
@@ -25722,7 +25635,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.2564617991447449</v>
@@ -25838,7 +25751,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.009306595660746098</v>
@@ -25954,7 +25867,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.4641252160072327</v>
@@ -26070,7 +25983,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -26186,7 +26099,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>101.1874313354492</v>
@@ -26284,7 +26197,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>63.57506561279297</v>
@@ -26382,7 +26295,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>8.725850105285645</v>
@@ -26480,7 +26393,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>63.44162750244141</v>
@@ -26578,7 +26491,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>221.8795471191406</v>
@@ -26676,7 +26589,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>39.15521621704102</v>
@@ -26774,7 +26687,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-177.2420043945312</v>
@@ -26872,7 +26785,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>495.7207641601562</v>
@@ -27099,7 +27012,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>17.93893623352051</v>
@@ -27215,7 +27128,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.3010378777980804</v>
@@ -27331,7 +27244,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.005462115630507469</v>
@@ -27447,7 +27360,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.83571529388428</v>
@@ -27563,7 +27476,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.04006329551339149</v>
@@ -27679,7 +27592,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1123036891222</v>
@@ -27795,7 +27708,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.03217250853776932</v>
@@ -27911,7 +27824,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>8.119594573974609</v>
@@ -28027,7 +27940,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1151281744241714</v>
@@ -28143,7 +28056,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.402775764465332</v>
@@ -28259,7 +28172,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.01068348158150911</v>
@@ -28375,7 +28288,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.2808251976966858</v>
@@ -28491,7 +28404,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.03773818537592888</v>
@@ -28607,7 +28520,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.63770604133606</v>
@@ -28723,7 +28636,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2.431695222854614</v>
@@ -28839,7 +28752,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>11.02849578857422</v>
@@ -28955,7 +28868,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>8.059365272521973</v>
@@ -29071,7 +28984,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.528444647789001</v>
@@ -29187,7 +29100,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.08323728293180466</v>
@@ -29303,7 +29216,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2932060956954956</v>
@@ -29419,7 +29332,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.7695516347885132</v>
@@ -29535,7 +29448,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.07527463138103485</v>
@@ -29651,7 +29564,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0006700514350086451</v>
@@ -29767,7 +29680,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.4693067669868469</v>
@@ -29883,7 +29796,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.386161804199219</v>
@@ -29999,7 +29912,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.365777999162674</v>
@@ -30115,7 +30028,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1180616766214371</v>
@@ -30231,7 +30144,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.004372992552816868</v>
@@ -30347,7 +30260,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.2010804265737534</v>
@@ -30463,7 +30376,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -30579,7 +30492,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>51.55271911621094</v>
@@ -30677,7 +30590,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>28.42629051208496</v>
@@ -30775,7 +30688,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>3.868378639221191</v>
@@ -30873,7 +30786,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>28.12519073486328</v>
@@ -30971,7 +30884,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>98.36451721191406</v>
@@ -31069,7 +30982,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>17.35844612121582</v>
@@ -31167,7 +31080,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-78.57563018798828</v>
@@ -31265,7 +31178,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>219.8047790527344</v>
@@ -31492,7 +31405,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>38.51165008544922</v>
@@ -31608,7 +31521,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.6349217891693115</v>
@@ -31724,7 +31637,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.09870708733797073</v>
@@ -31840,7 +31753,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>24.25414085388184</v>
@@ -31956,7 +31869,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1082706078886986</v>
@@ -32072,7 +31985,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.4520198404788971</v>
@@ -32188,7 +32101,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.779630303382874</v>
@@ -32304,7 +32217,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.14988899230957</v>
@@ -32420,7 +32333,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.4199660420417786</v>
@@ -32536,7 +32449,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>2.626887083053589</v>
@@ -32652,7 +32565,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.15207099914551</v>
@@ -32768,7 +32681,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.6361024975776672</v>
@@ -32884,7 +32797,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.03623319789767265</v>
@@ -33000,7 +32913,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>3.461425542831421</v>
@@ -33116,7 +33029,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>6.544981956481934</v>
@@ -33232,7 +33145,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>26.03415870666504</v>
@@ -33348,7 +33261,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>32.08564376831055</v>
@@ -33464,7 +33377,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>2.530635595321655</v>
@@ -33580,7 +33493,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.3232199251651764</v>
@@ -33696,7 +33609,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.9684997797012329</v>
@@ -33812,7 +33725,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3.025808334350586</v>
@@ -33928,7 +33841,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.1654324978590012</v>
@@ -34044,7 +33957,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.001541512552648783</v>
@@ -34160,7 +34073,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>2.185072183609009</v>
@@ -34276,7 +34189,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.84659576416016</v>
@@ -34392,7 +34305,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.8418538570404053</v>
@@ -34508,7 +34421,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.3353889882564545</v>
@@ -34624,7 +34537,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.01119702775031328</v>
@@ -34740,7 +34653,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.6280949711799622</v>
@@ -34856,7 +34769,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -34972,7 +34885,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>74.65756225585938</v>
@@ -35070,7 +34983,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>58.38385391235352</v>
@@ -35168,7 +35081,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>8.259461402893066</v>
@@ -35266,7 +35179,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>60.05073928833008</v>
@@ -35364,7 +35277,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>210.0203094482422</v>
@@ -35462,7 +35375,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>37.06241226196289</v>
@@ -35560,7 +35473,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-167.7686157226562</v>
@@ -35658,7 +35571,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>469.5157775878906</v>
@@ -35885,7 +35798,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>5.178893566131592</v>
@@ -36001,7 +35914,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1134076714515686</v>
@@ -36117,7 +36030,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.02209973894059658</v>
@@ -36233,7 +36146,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.3777683973312378</v>
@@ -36349,7 +36262,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0003901972668245435</v>
@@ -36465,7 +36378,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.04113293066620827</v>
@@ -36581,7 +36494,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.01244924124330282</v>
@@ -36697,7 +36610,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.02563026919960976</v>
@@ -36813,7 +36726,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.04023534059524536</v>
@@ -36929,7 +36842,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.04306082427501678</v>
@@ -37045,7 +36958,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.440912663936615</v>
@@ -37161,7 +37074,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.04774356260895729</v>
@@ -37277,7 +37190,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.04031782597303391</v>
@@ -37393,7 +37306,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.2485441118478775</v>
@@ -37509,7 +37422,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.60487973690033</v>
@@ -37625,7 +37538,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>3.410635709762573</v>
@@ -37741,7 +37654,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>2.731995105743408</v>
@@ -37857,7 +37770,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.350440502166748</v>
@@ -37973,7 +37886,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.03427400067448616</v>
@@ -38089,7 +38002,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.06852266937494278</v>
@@ -38205,7 +38118,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.2242396026849747</v>
@@ -38321,7 +38234,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.02428901754319668</v>
@@ -38437,7 +38350,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0002541522262617946</v>
@@ -38553,7 +38466,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.3287931680679321</v>
@@ -38669,7 +38582,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.242751598358154</v>
@@ -38785,7 +38698,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.1966280490159988</v>
@@ -38901,7 +38814,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.03806834295392036</v>
@@ -39017,7 +38930,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.002222614595666528</v>
@@ -39133,7 +39046,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1193752735853195</v>
@@ -39249,7 +39162,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -39365,7 +39278,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>20.81900596618652</v>
@@ -39463,7 +39376,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>8.681276321411133</v>
@@ -39561,7 +39474,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>1.244287371635437</v>
@@ -39659,7 +39572,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>9.046635627746582</v>
@@ -39757,7 +39670,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>31.63953971862793</v>
@@ -39855,7 +39768,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>5.583448886871338</v>
@@ -39953,7 +39866,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-25.27432632446289</v>
@@ -40051,7 +39964,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>70.74982452392578</v>
@@ -40278,7 +40191,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6.104420185089111</v>
@@ -40394,7 +40307,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1616510897874832</v>
@@ -40510,7 +40423,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.03220357373356819</v>
@@ -40626,7 +40539,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.9689610600471497</v>
@@ -40742,7 +40655,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.005381854716688395</v>
@@ -40858,7 +40771,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.02835575677454472</v>
@@ -40974,7 +40887,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.641743004322052</v>
@@ -41090,7 +41003,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.2846844494342804</v>
@@ -41206,7 +41119,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.05780677869915962</v>
@@ -41322,7 +41235,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.105486989021301</v>
@@ -41438,7 +41351,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.006688730325549841</v>
@@ -41554,7 +41467,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.05531134828925133</v>
@@ -41670,7 +41583,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.03148168325424194</v>
@@ -41786,7 +41699,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.6361618041992188</v>
@@ -41902,7 +41815,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.331973075866699</v>
@@ -42018,7 +41931,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>5.407871723175049</v>
@@ -42134,7 +42047,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>3.555143117904663</v>
@@ -42250,7 +42163,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.454532653093338</v>
@@ -42366,7 +42279,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1002920567989349</v>
@@ -42482,7 +42395,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.09015503525733948</v>
@@ -42598,7 +42511,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.2834310531616211</v>
@@ -42714,7 +42627,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.03567271307110786</v>
@@ -42830,7 +42743,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0003180739877279848</v>
@@ -42946,7 +42859,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.3693980574607849</v>
@@ -43062,7 +42975,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.881188869476318</v>
@@ -43178,7 +43091,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2680641412734985</v>
@@ -43294,7 +43207,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.07015108317136765</v>
@@ -43410,7 +43323,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.002455126959830523</v>
@@ -43526,7 +43439,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.126543328166008</v>
@@ -43642,7 +43555,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -43758,7 +43671,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>33.43075180053711</v>
@@ -43856,7 +43769,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>13.50749778747559</v>
@@ -43954,7 +43867,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>1.846191763877869</v>
@@ -44052,7 +43965,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>13.42280864715576</v>
@@ -44150,7 +44063,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>46.94467163085938</v>
@@ -44248,7 +44161,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>8.284354209899902</v>
@@ -44346,7 +44259,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-37.50038146972656</v>
@@ -44444,7 +44357,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>105.0334243774414</v>
@@ -44671,7 +44584,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.267075538635254</v>
@@ -44787,7 +44700,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.05052332952618599</v>
@@ -44903,7 +44816,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.0006565061630681157</v>
@@ -45019,7 +44932,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.086329221725464</v>
@@ -45135,7 +45048,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.0005323993391357362</v>
@@ -45251,7 +45164,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.00701436959207058</v>
@@ -45367,7 +45280,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.005239893216639757</v>
@@ -45483,7 +45396,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.3643080294132233</v>
@@ -45599,7 +45512,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.001915419707074761</v>
@@ -45715,7 +45628,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.01882247813045979</v>
@@ -45831,7 +45744,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.02010462246835232</v>
@@ -45947,7 +45860,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.07386419922113419</v>
@@ -46063,7 +45976,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.0001363583432976156</v>
@@ -46179,7 +46092,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.1033885702490807</v>
@@ -46295,7 +46208,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.6258636116981506</v>
@@ -46411,7 +46324,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>2.048672437667847</v>
@@ -46527,7 +46440,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1.568804860115051</v>
@@ -46643,7 +46556,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.452253520488739</v>
@@ -46759,7 +46672,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.02600061520934105</v>
@@ -46875,7 +46788,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1074115857481956</v>
@@ -46991,7 +46904,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.4005526602268219</v>
@@ -47107,7 +47020,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.0131097175180912</v>
@@ -47223,7 +47136,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>9.78155730990693e-05</v>
@@ -47339,7 +47252,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1073686480522156</v>
@@ -47455,7 +47368,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>0.4224039316177368</v>
@@ -47571,7 +47484,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.08261429518461227</v>
@@ -47687,7 +47600,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.02929319068789482</v>
@@ -47803,7 +47716,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.0008533249492757022</v>
@@ -47919,7 +47832,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.05777997151017189</v>
@@ -48035,7 +47948,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -48151,7 +48064,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>9.663871765136719</v>
@@ -48249,7 +48162,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>4.562255859375</v>
@@ -48347,7 +48260,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>0.6459029912948608</v>
@@ -48445,7 +48358,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>4.696062088012695</v>
@@ -48543,7 +48456,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>16.42392158508301</v>
@@ -48641,7 +48554,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>2.89833927154541</v>
@@ -48739,7 +48652,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-13.11977005004883</v>
@@ -48837,7 +48750,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>36.71357727050781</v>
@@ -49064,7 +48977,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>47.37355804443359</v>
@@ -49180,7 +49093,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.8288539052009583</v>
@@ -49296,7 +49209,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.03451919928193092</v>
@@ -49412,7 +49325,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>30.54870223999023</v>
@@ -49528,7 +49441,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.04241086170077324</v>
@@ -49644,7 +49557,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1197353377938271</v>
@@ -49760,7 +49673,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.3286778926849365</v>
@@ -49876,7 +49789,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>43.18752670288086</v>
@@ -49992,7 +49905,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1.052873611450195</v>
@@ -50108,7 +50021,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.53922712802887</v>
@@ -50224,7 +50137,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2.435903549194336</v>
@@ -50340,7 +50253,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>5.025583267211914</v>
@@ -50456,7 +50369,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.464188277721405</v>
@@ -50572,7 +50485,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4.329455375671387</v>
@@ -50688,7 +50601,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>9.267948150634766</v>
@@ -50804,7 +50717,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>36.01565170288086</v>
@@ -50920,7 +50833,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>36.59675216674805</v>
@@ -51036,7 +50949,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>3.954299926757812</v>
@@ -51152,7 +51065,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.4794184565544128</v>
@@ -51268,7 +51181,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1.170064330101013</v>
@@ -51384,7 +51297,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>4.925906181335449</v>
@@ -51500,7 +51413,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.214739128947258</v>
@@ -51616,7 +51529,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.001984367379918694</v>
@@ -51732,7 +51645,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>3.898723125457764</v>
@@ -51848,7 +51761,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>25.97584915161133</v>
@@ -51964,7 +51877,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>1.084891796112061</v>
@@ -52080,7 +51993,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.4289113581180573</v>
@@ -52196,7 +52109,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.01566584780812263</v>
@@ -52312,7 +52225,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.7995856404304504</v>
@@ -52428,7 +52341,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -52544,7 +52457,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>75.02250671386719</v>
@@ -52642,7 +52555,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>76.0489501953125</v>
@@ -52740,7 +52653,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>10.60724258422852</v>
@@ -52838,7 +52751,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>77.12033843994141</v>
@@ -52936,7 +52849,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>269.7192993164062</v>
@@ -53034,7 +52947,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>47.59752655029297</v>
@@ -53132,7 +53045,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-215.4573974609375</v>
@@ -53230,7 +53143,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>602.8001098632812</v>
@@ -53457,7 +53370,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>18.99304389953613</v>
@@ -53573,7 +53486,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2188416123390198</v>
@@ -53689,7 +53602,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01282240636646748</v>
@@ -53805,7 +53718,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>17.92426490783691</v>
@@ -53921,7 +53834,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.05815086886286736</v>
@@ -54037,7 +53950,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1232346594333649</v>
@@ -54153,7 +54066,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.297240376472473</v>
@@ -54269,7 +54182,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.01845645904541</v>
@@ -54385,7 +54298,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1649110168218613</v>
@@ -54501,7 +54414,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.855146884918213</v>
@@ -54617,7 +54530,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.4082547724246979</v>
@@ -54733,7 +54646,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>3.430739641189575</v>
@@ -54849,7 +54762,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.05632193759083748</v>
@@ -54965,7 +54878,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.888786315917969</v>
@@ -55081,7 +54994,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>6.658278465270996</v>
@@ -55197,7 +55110,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.92280006408691</v>
@@ -55313,7 +55226,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>7.687652587890625</v>
@@ -55429,7 +55342,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.111554980278015</v>
@@ -55545,7 +55458,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1630852371454239</v>
@@ -55661,7 +55574,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2341058701276779</v>
@@ -55777,7 +55690,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.8123527765274048</v>
@@ -55893,7 +55806,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.1011733114719391</v>
@@ -56009,7 +55922,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0009579405887052417</v>
@@ -56125,7 +56038,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.7975920438766479</v>
@@ -56241,7 +56154,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>7.790918827056885</v>
@@ -56357,7 +56270,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.595022976398468</v>
@@ -56473,7 +56386,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1629156619310379</v>
@@ -56589,7 +56502,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.006604509893804789</v>
@@ -56705,7 +56618,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.2827610969543457</v>
@@ -56821,7 +56734,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -56937,7 +56850,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>66.03265380859375</v>
@@ -57035,7 +56948,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>37.93401718139648</v>
@@ -57133,7 +57046,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>5.209464550018311</v>
@@ -57231,7 +57144,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>37.87560272216797</v>
@@ -57329,7 +57242,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>132.4654083251953</v>
@@ -57427,7 +57340,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>23.37625122070312</v>
@@ -57525,7 +57438,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-105.8161315917969</v>
@@ -57623,7 +57536,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>295.8552856445312</v>
@@ -57850,7 +57763,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.915356636047363</v>
@@ -57966,7 +57879,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.199888601899147</v>
@@ -58082,7 +57995,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.007129131350666285</v>
@@ -58198,7 +58111,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.09423351287842</v>
@@ -58314,7 +58227,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.008587082847952843</v>
@@ -58430,7 +58343,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.06450670957565308</v>
@@ -58546,7 +58459,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.2360692471265793</v>
@@ -58662,7 +58575,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.8678343296051025</v>
@@ -58778,7 +58691,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.2362325638532639</v>
@@ -58894,7 +58807,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.8590090274810791</v>
@@ -59010,7 +58923,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2141042500734329</v>
@@ -59126,7 +59039,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.7647338509559631</v>
@@ -59242,7 +59155,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.06974253803491592</v>
@@ -59358,7 +59271,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.8017860054969788</v>
@@ -59474,7 +59387,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>3.230831384658813</v>
@@ -59590,7 +59503,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>8.679774284362793</v>
@@ -59706,7 +59619,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>6.669885158538818</v>
@@ -59822,7 +59735,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.420768678188324</v>
@@ -59938,7 +59851,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.08850734680891037</v>
@@ -60054,7 +59967,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1953781247138977</v>
@@ -60170,7 +60083,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.5243663787841797</v>
@@ -60286,7 +60199,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.05238226801156998</v>
@@ -60402,7 +60315,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0005040179821662605</v>
@@ -60518,7 +60431,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.6701529622077942</v>
@@ -60634,7 +60547,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.773241519927979</v>
@@ -60750,7 +60663,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.346448540687561</v>
@@ -60866,7 +60779,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.09077604115009308</v>
@@ -60982,7 +60895,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.003853866597637534</v>
@@ -61098,7 +61011,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.173915296792984</v>
@@ -61214,7 +61127,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -61330,7 +61243,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>40.42551803588867</v>
@@ -61428,7 +61341,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>19.10132789611816</v>
@@ -61526,7 +61439,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>2.666330337524414</v>
@@ -61624,7 +61537,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>19.38565826416016</v>
@@ -61722,7 +61635,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>67.79902648925781</v>
@@ -61820,7 +61733,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>11.96453475952148</v>
@@ -61918,7 +61831,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-54.15927505493164</v>
@@ -62016,7 +61929,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>151.443115234375</v>
@@ -62243,7 +62156,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.76427173614502</v>
@@ -62359,7 +62272,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2984335422515869</v>
@@ -62475,7 +62388,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01079104468226433</v>
@@ -62591,7 +62504,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.129841804504395</v>
@@ -62707,7 +62620,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.1149722337722778</v>
@@ -62823,7 +62736,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1019232720136642</v>
@@ -62939,7 +62852,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.653962135314941</v>
@@ -63055,7 +62968,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.84574222564697</v>
@@ -63171,7 +63084,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.2488769441843033</v>
@@ -63287,7 +63200,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.6787318587303162</v>
@@ -63403,7 +63316,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>1.579225301742554</v>
@@ -63519,7 +63432,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>3.274685144424438</v>
@@ -63635,7 +63548,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.07499787956476212</v>
@@ -63751,7 +63664,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>2.103511810302734</v>
@@ -63867,7 +63780,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5.996072292327881</v>
@@ -63983,7 +63896,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>16.2172794342041</v>
@@ -64099,7 +64012,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.78933525085449</v>
@@ -64215,7 +64128,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1.268769145011902</v>
@@ -64331,7 +64244,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.2214164137840271</v>
@@ -64447,7 +64360,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.9486851692199707</v>
@@ -64563,7 +64476,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1.689334511756897</v>
@@ -64679,7 +64592,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.09793125092983246</v>
@@ -64795,7 +64708,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.000900503306183964</v>
@@ -64911,7 +64824,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.377551198005676</v>
@@ -65027,7 +64940,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>11.45524597167969</v>
@@ -65143,7 +65056,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.4354696571826935</v>
@@ -65259,7 +65172,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.2024438083171844</v>
@@ -65375,7 +65288,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.006743832491338253</v>
@@ -65491,7 +65404,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.3758472800254822</v>
@@ -65607,7 +65520,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -65723,7 +65636,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>52.87993621826172</v>
@@ -65821,7 +65734,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>34.65375900268555</v>
@@ -65919,7 +65832,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>4.838115215301514</v>
@@ -66017,7 +65930,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>35.17568206787109</v>
@@ -66115,7 +66028,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>123.0227661132812</v>
@@ -66213,7 +66126,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>21.70990180969238</v>
@@ -66311,7 +66224,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-98.27315521240234</v>
@@ -66409,7 +66322,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>274.9700012207031</v>
@@ -66636,7 +66549,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.744283199310303</v>
@@ -66752,7 +66665,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1006080955266953</v>
@@ -66868,7 +66781,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.001093529397621751</v>
@@ -66984,7 +66897,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>7.707089900970459</v>
@@ -67100,7 +67013,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.05413960665464401</v>
@@ -67216,7 +67129,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1593046486377716</v>
@@ -67332,7 +67245,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.232548400759697</v>
@@ -67448,7 +67361,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2.927428483963013</v>
@@ -67564,7 +67477,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.122786782681942</v>
@@ -67680,7 +67593,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3836590051651001</v>
@@ -67796,7 +67709,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.376962274312973</v>
@@ -67912,7 +67825,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.142348527908325</v>
@@ -68028,7 +67941,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01864980906248093</v>
@@ -68144,7 +68057,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.157371640205383</v>
@@ -68260,7 +68173,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2.834857940673828</v>
@@ -68376,7 +68289,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>7.016353130340576</v>
@@ -68492,7 +68405,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>7.007165908813477</v>
@@ -68608,7 +68521,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.4867035448551178</v>
@@ -68724,7 +68637,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.09031253308057785</v>
@@ -68840,7 +68753,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2341287285089493</v>
@@ -68956,7 +68869,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.496131956577301</v>
@@ -69072,7 +68985,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.04372053593397141</v>
@@ -69188,7 +69101,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0004252011422067881</v>
@@ -69304,7 +69217,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.4568442106246948</v>
@@ -69420,7 +69333,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>5.682555198669434</v>
@@ -69536,7 +69449,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.1713031232357025</v>
@@ -69652,7 +69565,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.07414799183607101</v>
@@ -69768,7 +69681,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.003359217662364244</v>
@@ -69884,7 +69797,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.1425625532865524</v>
@@ -70000,7 +69913,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -70116,7 +70029,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>26.7198543548584</v>
@@ -70214,7 +70127,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>15.90643405914307</v>
@@ -70312,7 +70225,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>2.22106146812439</v>
@@ -70410,7 +70323,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>16.14831161499023</v>
@@ -70508,7 +70421,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>56.476806640625</v>
@@ -70606,7 +70519,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>9.966496467590332</v>
@@ -70704,7 +70617,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-45.11485290527344</v>
@@ -70802,7 +70715,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>126.1929550170898</v>
@@ -71029,7 +70942,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>2.406683921813965</v>
@@ -71145,7 +71058,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.079250268638134</v>
@@ -71261,7 +71174,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.003116160398349166</v>
@@ -71377,7 +71290,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2.021746873855591</v>
@@ -71493,7 +71406,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.003870783839374781</v>
@@ -71609,7 +71522,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.02033272385597229</v>
@@ -71725,7 +71638,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.7021525502204895</v>
@@ -71841,7 +71754,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2.120754480361938</v>
@@ -71957,7 +71870,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.06062524765729904</v>
@@ -72073,7 +71986,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.06064951792359352</v>
@@ -72189,7 +72102,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.0277362484484911</v>
@@ -72305,7 +72218,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3666190803050995</v>
@@ -72421,7 +72334,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.001865526661276817</v>
@@ -72537,7 +72450,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.3635082244873047</v>
@@ -72653,7 +72566,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.836957216262817</v>
@@ -72769,7 +72682,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>6.090851783752441</v>
@@ -72885,7 +72798,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>2.12458348274231</v>
@@ -73001,7 +72914,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.563734769821167</v>
@@ -73117,7 +73030,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.05628135055303574</v>
@@ -73233,7 +73146,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.1053147315979004</v>
@@ -73349,7 +73262,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.1641203612089157</v>
@@ -73465,7 +73378,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.03545800969004631</v>
@@ -73581,7 +73494,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0003392520011402667</v>
@@ -73697,7 +73610,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2534491419792175</v>
@@ -73813,7 +73726,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.718699216842651</v>
@@ -73929,7 +73842,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2091645747423172</v>
@@ -74045,7 +73958,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.03886936232447624</v>
@@ -74161,7 +74074,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.001877001370303333</v>
@@ -74277,7 +74190,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.083143450319767</v>
@@ -74393,7 +74306,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -74509,7 +74422,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>35.45852279663086</v>
@@ -74607,7 +74520,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>13.57914924621582</v>
@@ -74705,7 +74618,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>1.837392091751099</v>
@@ -74803,7 +74716,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>13.3588228225708</v>
@@ -74901,7 +74814,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>46.72090911865234</v>
@@ -74999,7 +74912,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>8.244866371154785</v>
@@ -75097,7 +75010,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-37.32163619995117</v>
@@ -75195,7 +75108,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>104.3997802734375</v>
@@ -75422,7 +75335,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.669963836669922</v>
@@ -75538,7 +75451,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.0696367546916008</v>
@@ -75654,7 +75567,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.008029976859688759</v>
@@ -75770,7 +75683,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.964343547821045</v>
@@ -75886,7 +75799,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.001729187439195812</v>
@@ -76002,7 +75915,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.06727713346481323</v>
@@ -76118,7 +76031,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1.650119781494141</v>
@@ -76234,7 +76147,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1.568392515182495</v>
@@ -76350,7 +76263,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.1342403143644333</v>
@@ -76466,7 +76379,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.1971479207277298</v>
@@ -76582,7 +76495,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.04113255068659782</v>
@@ -76698,7 +76611,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.3063998520374298</v>
@@ -76814,7 +76727,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.001118762069381773</v>
@@ -76930,7 +76843,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.484515517950058</v>
@@ -77046,7 +76959,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1.875453591346741</v>
@@ -77162,7 +77075,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>4.878440856933594</v>
@@ -77278,7 +77191,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>3.568737030029297</v>
@@ -77394,7 +77307,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.3005353510379791</v>
@@ -77510,7 +77423,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.06315480172634125</v>
@@ -77626,7 +77539,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.09601821750402451</v>
@@ -77742,7 +77655,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.2058107703924179</v>
@@ -77858,7 +77771,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.02896549552679062</v>
@@ -77974,7 +77887,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0002642240142449737</v>
@@ -78090,7 +78003,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.4073382914066315</v>
@@ -78206,7 +78119,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>2.323782205581665</v>
@@ -78322,7 +78235,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.2054301202297211</v>
@@ -78438,7 +78351,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.05958013609051704</v>
@@ -78554,7 +78467,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.002109533408656716</v>
@@ -78670,7 +78583,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.09149037301540375</v>
@@ -78786,7 +78699,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -78902,7 +78815,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>21.68161201477051</v>
@@ -79000,7 +78913,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>10.65631771087646</v>
@@ -79098,7 +79011,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>1.478361368179321</v>
@@ -79196,7 +79109,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>10.74848175048828</v>
@@ -79294,7 +79207,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>37.59153747558594</v>
@@ -79392,7 +79305,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>6.633801460266113</v>
@@ -79490,7 +79403,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-30.02890396118164</v>
@@ -79588,7 +79501,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>84.03236389160156</v>
@@ -79815,7 +79728,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>15.70805740356445</v>
@@ -79931,7 +79844,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.3410062789916992</v>
@@ -80047,7 +79960,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.01149710174649954</v>
@@ -80163,7 +80076,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5.054190635681152</v>
@@ -80279,7 +80192,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.04851122200489044</v>
@@ -80395,7 +80308,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3370879590511322</v>
@@ -80511,7 +80424,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.1810654848814011</v>
@@ -80627,7 +80540,7 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4.773463249206543</v>
@@ -80743,7 +80656,7 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.3404072225093842</v>
@@ -80859,7 +80772,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.3682240843772888</v>
@@ -80975,7 +80888,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.3621319532394409</v>
@@ -81091,7 +81004,7 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.8995541334152222</v>
@@ -81207,7 +81120,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.01545444596558809</v>
@@ -81323,7 +81236,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>1.737178921699524</v>
@@ -81439,7 +81352,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4.339267730712891</v>
@@ -81555,7 +81468,7 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>10.94295787811279</v>
@@ -81671,7 +81584,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>9.167492866516113</v>
@@ -81787,7 +81700,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.8632090091705322</v>
@@ -81903,7 +81816,7 @@
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.1301362216472626</v>
@@ -82019,7 +81932,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.2078220546245575</v>
@@ -82135,7 +82048,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.5750508904457092</v>
@@ -82251,7 +82164,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.07335149496793747</v>
@@ -82367,7 +82280,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.0007660879055038095</v>
@@ -82483,7 +82396,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1.151371359825134</v>
@@ -82599,7 +82512,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>6.259746551513672</v>
@@ -82715,7 +82628,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0.3921870291233063</v>
@@ -82831,7 +82744,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0.1727831214666367</v>
@@ -82947,7 +82860,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0.007407501339912415</v>
@@ -83063,7 +82976,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0.2415277808904648</v>
@@ -83179,7 +83092,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -83295,7 +83208,7 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
         <v>52.49796676635742</v>
@@ -83393,7 +83306,7 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>25.80908966064453</v>
@@ -83491,7 +83404,7 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>3.673023462295532</v>
@@ -83589,7 +83502,7 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>26.70485496520996</v>
@@ -83687,7 +83600,7 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>93.39706420898438</v>
@@ -83785,7 +83698,7 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>16.48183631896973</v>
@@ -83883,7 +83796,7 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>-74.60752105712891</v>
@@ -83981,7 +83894,7 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>208.6592407226562</v>
@@ -84080,196 +83993,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
-    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
-    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44625FD-0800-4CF6-A108-CAB4D63807A4}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7462E48-CDFA-4991-AD8B-4125D1EEDF05}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674409C-208E-495B-B87B-0122B679B618}"/>
 </file>
--- a/outdata/io2014.xlsx
+++ b/outdata/io2014.xlsx
@@ -83993,4 +83993,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC07C384-03A9-400A-86A3-C91DE19E0409}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5453346B-1D44-44BF-8CC9-929C1F6EF8E6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC5BB1D-32DD-4C9F-B45D-CDD46E6BF199}"/>
 </file>